--- a/Luban/Config/Datas/BlockElementConfigTables.xlsx
+++ b/Luban/Config/Datas/BlockElementConfigTables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC2102-F23E-4406-A1C1-7889CAB8351B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1514A5EB-D0DC-4FE9-8352-83F80411C575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -577,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
